--- a/Input GPT.xlsx
+++ b/Input GPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rsmnlnl-my.sharepoint.com/personal/schakrabarty_rsmnl_nl/Documents/Desktop/audit risk assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{47019FD0-809D-4FEF-9445-26D1CD167073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E54BB0E-DF3A-41DD-B9FB-801138A69DAD}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{47019FD0-809D-4FEF-9445-26D1CD167073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA084567-A337-4098-B3CD-37A78E451E9C}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BBE0722B-FB1C-4ECD-B13B-F68ADC024BF1}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>No significant doubt exists regarding the entity’s ability to continue as a going concern. No material uncertainties or mitigating actions were required.</t>
+  </si>
+  <si>
+    <t>Generated answer</t>
+  </si>
+  <si>
+    <t>Sources</t>
   </si>
 </sst>
 </file>
@@ -854,7 +860,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -863,7 +869,8 @@
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.109375" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,6 +890,12 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
